--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC79-EQUIPO MINIBASICO  3.5.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC79-EQUIPO MINIBASICO  3.5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA783A-D018-47EC-8027-5C4C39B701B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,24 +131,12 @@
     <t>DESPERIO  FINO</t>
   </si>
   <si>
-    <t>DESPERIO FINO CURO</t>
-  </si>
-  <si>
-    <t>DESPERIO MEDIANO CURVO</t>
-  </si>
-  <si>
     <t>PINZA REDUCTORA CANGREJO ARANDELA</t>
   </si>
   <si>
     <t>PINZA REDUCTORA ESPAÑOLA CREMALLERA</t>
   </si>
   <si>
-    <t xml:space="preserve">OSTEOTOMO MEDIUM </t>
-  </si>
-  <si>
-    <t>OSTEOTOMO LARGE</t>
-  </si>
-  <si>
     <t>INSTRUMENTAL MINIBASICO 3.5</t>
   </si>
   <si>
@@ -155,12 +144,24 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>DESPERIO FINO CURO MANGO MADERA</t>
+  </si>
+  <si>
+    <t>DESPERIO MEDIANO CURVO MANGO MADERA</t>
+  </si>
+  <si>
+    <t>OSTEOTOMO MEDIUM PLANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTEOTOMO LARGE PLANO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -546,33 +547,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Moneda [0] 2" xfId="3"/>
-    <cellStyle name="Moneda [0] 2 2" xfId="13"/>
-    <cellStyle name="Moneda [0] 2 3" xfId="7"/>
-    <cellStyle name="Moneda [0] 3" xfId="12"/>
-    <cellStyle name="Moneda [0] 4" xfId="6"/>
-    <cellStyle name="Moneda 10" xfId="18"/>
-    <cellStyle name="Moneda 11" xfId="19"/>
-    <cellStyle name="Moneda 12" xfId="20"/>
-    <cellStyle name="Moneda 13" xfId="21"/>
-    <cellStyle name="Moneda 14" xfId="16"/>
-    <cellStyle name="Moneda 15" xfId="22"/>
-    <cellStyle name="Moneda 16" xfId="23"/>
-    <cellStyle name="Moneda 17" xfId="24"/>
-    <cellStyle name="Moneda 18" xfId="25"/>
-    <cellStyle name="Moneda 19" xfId="26"/>
-    <cellStyle name="Moneda 2" xfId="11"/>
-    <cellStyle name="Moneda 2 2" xfId="14"/>
-    <cellStyle name="Moneda 20" xfId="2"/>
-    <cellStyle name="Moneda 3" xfId="10"/>
-    <cellStyle name="Moneda 4" xfId="15"/>
-    <cellStyle name="Moneda 5" xfId="5"/>
-    <cellStyle name="Moneda 6" xfId="4"/>
-    <cellStyle name="Moneda 7" xfId="8"/>
-    <cellStyle name="Moneda 8" xfId="9"/>
-    <cellStyle name="Moneda 9" xfId="17"/>
+    <cellStyle name="Moneda [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda [0] 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda [0] 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda [0] 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda [0] 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Moneda 10" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moneda 11" xfId="19" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 12" xfId="20" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Moneda 13" xfId="21" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Moneda 14" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 15" xfId="22" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 16" xfId="23" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 17" xfId="24" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 18" xfId="25" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 19" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Moneda 20" xfId="2" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Moneda 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Moneda 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Moneda 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Moneda 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Moneda 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Moneda 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Moneda 9" xfId="17" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,24 +938,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="103" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
@@ -965,7 +966,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
@@ -976,7 +977,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -987,10 +988,10 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1005,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
@@ -1014,7 +1015,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1029,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -1038,7 +1039,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1055,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -1064,7 +1065,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1079,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -1088,7 +1089,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1101,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
@@ -1110,7 +1111,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1125,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -1134,7 +1135,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1156,7 +1157,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="20" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1176,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -1184,7 +1185,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -1193,7 +1194,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
@@ -1202,7 +1203,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -1211,19 +1212,19 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="35"/>
       <c r="C25" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30">
         <v>2</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <v>2</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>2</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30">
         <v>1</v>
       </c>
@@ -1263,39 +1264,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30">
         <v>1</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
         <v>1</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30">
         <v>1</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
         <v>1</v>
       </c>
@@ -1311,31 +1312,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30">
         <v>2</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30">
         <v>2</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30">
         <v>1</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="30">
         <v>1</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="30">
         <v>1</v>
       </c>
@@ -1351,25 +1352,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33">
         <f>SUM(B27:B41)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="34"/>
     </row>
-    <row r="44" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
